--- a/code/Simulation_list/List.xlsx
+++ b/code/Simulation_list/List.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Simulation_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6342CD92-EB86-4971-9984-B89F9E99DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F52EC4-72DB-4AB1-ACDF-D35EE4385C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulations_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulations_2" sheetId="3" r:id="rId2"/>
+    <sheet name="Notes" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
   <si>
     <t>HL</t>
   </si>
@@ -106,6 +119,24 @@
   </si>
   <si>
     <t>S15</t>
+  </si>
+  <si>
+    <t>1) Try same simulations with full batch approach</t>
+  </si>
+  <si>
+    <t>2) Increase fourier features (128 - 256)</t>
+  </si>
+  <si>
+    <t>* Use only one F for every simulation</t>
+  </si>
+  <si>
+    <t>* Use only one T for every simulation</t>
+  </si>
+  <si>
+    <t>* Full of F</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -129,12 +160,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,12 +201,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,195 +830,558 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4133A4E-18C3-4112-88A7-75CF67A73108}">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="1">
         <v>200</v>
       </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>200</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>200</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4000</v>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>200</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>200</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>200</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4000</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D6C6CF-4BBF-4C2E-8C4B-020B001B42AA}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/code/Simulation_list/List.xlsx
+++ b/code/Simulation_list/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Simulation_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F52EC4-72DB-4AB1-ACDF-D35EE4385C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6FCDC-8DE9-4B43-9550-16EB7C8E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations_1" sheetId="1" r:id="rId1"/>
@@ -233,6 +233,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449192</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7039</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA580A0E-BABD-9547-AF2B-D605748A05F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211192" y="3131481"/>
+          <a:ext cx="3374197" cy="2530648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>187323</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>496955</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D27B05-CDD2-B3BA-1D69-DCF912423F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5521323" y="3030330"/>
+          <a:ext cx="3357632" cy="2525368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77427</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>305766</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074F9D0E-DD41-0801-92CD-955FC533D9AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1601427" y="5706716"/>
+          <a:ext cx="3276339" cy="2448476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244679</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>168825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530839</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DADC46C-97FD-1F05-27BA-D893941FC3D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5578679" y="5635347"/>
+          <a:ext cx="3334160" cy="2498175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>202029</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>582956</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED02E595-D0E9-0C49-5AC4-CBB886F9AC33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10108029" y="3095763"/>
+          <a:ext cx="3428927" cy="2564434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157467</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201957</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00F34B7-D3EB-6FFD-0BCD-7256EAB32CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10063467" y="5524501"/>
+          <a:ext cx="3848140" cy="2890631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1043,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4133A4E-18C3-4112-88A7-75CF67A73108}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,165 +1356,165 @@
       <c r="D3" s="5">
         <v>200</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>200</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>200</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>200</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>200</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>200</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>200</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>200</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>200</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>200</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>200</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1253,19 +1522,19 @@
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>200</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>200</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1279,15 +1548,15 @@
       <c r="D13" s="5">
         <v>200</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
@@ -1299,19 +1568,19 @@
       <c r="D14" s="5">
         <v>200</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1325,15 +1594,15 @@
       <c r="D15" s="5">
         <v>200</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1347,20 +1616,47 @@
       <c r="D16" s="5">
         <v>200</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>32</v>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/code/Simulation_list/List.xlsx
+++ b/code/Simulation_list/List.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Simulation_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6FCDC-8DE9-4B43-9550-16EB7C8E6F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6B6073-FB93-4502-B8C1-3F0D3710010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulations_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Simulations_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Notes" sheetId="2" r:id="rId3"/>
+    <sheet name="Simulations_1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Simulations_2" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Simulations Born Ion" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
   <si>
     <t>HL</t>
   </si>
@@ -137,6 +138,78 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>N° Sim</t>
+  </si>
+  <si>
+    <t>Mesh</t>
+  </si>
+  <si>
+    <t>NpL</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture </t>
+  </si>
+  <si>
+    <t>Loss terms</t>
+  </si>
+  <si>
+    <t>Coarse</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>BORN ION</t>
+  </si>
+  <si>
+    <t>METHANOL</t>
+  </si>
+  <si>
+    <t>ARGININE</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S25</t>
   </si>
 </sst>
 </file>
@@ -160,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +246,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,11 +288,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,8 +332,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4133A4E-18C3-4112-88A7-75CF67A73108}">
   <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,284 +1489,284 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>200</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>200</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>200</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>200</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>200</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="5"/>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>200</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>200</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>200</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>200</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5">
-        <v>4</v>
-      </c>
-      <c r="D12" s="5">
-        <v>200</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>200</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
-        <v>200</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>200</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
-        <v>200</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5">
-        <v>200</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1661,6 +1803,883 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D584B50-61A0-475D-B53E-27D0009BB9B9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9">
+        <v>200</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>120</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>120</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
+        <v>120</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
+        <v>200</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11">
+        <v>200</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11">
+        <v>200</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>200</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="11">
+        <v>4</v>
+      </c>
+      <c r="E17" s="11">
+        <v>200</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11">
+        <v>200</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>200</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11">
+        <v>200</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>200</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>200</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <v>200</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>200</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>200</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="11">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11">
+        <v>200</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5">
+        <v>200</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="10">
+        <v>26</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="11">
+        <v>4</v>
+      </c>
+      <c r="E35" s="11">
+        <v>200</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="98" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D6C6CF-4BBF-4C2E-8C4B-020B001B42AA}">
   <dimension ref="B2:B3"/>
   <sheetViews>

--- a/code/Simulation_list/List.xlsx
+++ b/code/Simulation_list/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Simulation_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6B6073-FB93-4502-B8C1-3F0D3710010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA8C4D-1F08-424C-9761-1937662E99BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="68">
   <si>
     <t>HL</t>
   </si>
@@ -210,6 +210,39 @@
   </si>
   <si>
     <t>S25</t>
+  </si>
+  <si>
+    <t>mala</t>
+  </si>
+  <si>
+    <t>buena</t>
+  </si>
+  <si>
+    <t>mas o menos</t>
+  </si>
+  <si>
+    <t>mas o menos mal</t>
+  </si>
+  <si>
+    <t>* continuidad absoluta</t>
+  </si>
+  <si>
+    <t>* continuidad desplazamiento</t>
+  </si>
+  <si>
+    <t>* no sacar relativo !</t>
+  </si>
+  <si>
+    <t>ordenar resultados en tablas (cruce entre cuantitativo y cualitativo)</t>
+  </si>
+  <si>
+    <t>Falta ruido</t>
+  </si>
+  <si>
+    <t>u = u*g</t>
+  </si>
+  <si>
+    <t>desviación = 0.1</t>
   </si>
 </sst>
 </file>
@@ -318,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,12 +366,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,6 +385,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1807,10 +1837,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:K35"/>
+  <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1818,562 +1848,607 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="K3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9">
-        <v>200</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>200</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>120</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="9">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9">
-        <v>200</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>200</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>120</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="9">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9">
-        <v>200</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>200</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>120</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9">
-        <v>200</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9">
-        <v>200</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="9">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9">
-        <v>200</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>200</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="10">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10">
-        <v>200</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>200</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11">
-        <v>200</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="11">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11">
-        <v>200</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
+      <c r="D15" s="9">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="11">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>200</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="11">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11">
-        <v>200</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
+      <c r="D17" s="9">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11">
-        <v>200</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
+      <c r="D18" s="9">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11">
-        <v>4</v>
-      </c>
-      <c r="E19" s="11">
-        <v>200</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+      <c r="D19" s="9">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11">
-        <v>4</v>
-      </c>
-      <c r="E20" s="11">
-        <v>200</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="11">
-        <v>4</v>
-      </c>
-      <c r="E21" s="11">
-        <v>200</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="11">
-        <v>4</v>
-      </c>
-      <c r="E22" s="11">
-        <v>200</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
+      <c r="D22" s="9">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2401,9 +2476,12 @@
       <c r="K23" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
+      <c r="L23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2429,9 +2507,12 @@
       <c r="K24" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2451,9 +2532,12 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+      <c r="L25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2471,89 +2555,95 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="13" t="s">
+      <c r="L26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="10" t="s">
+      <c r="K29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="11">
-        <v>4</v>
-      </c>
-      <c r="E30" s="11">
-        <v>200</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
+      <c r="D30" s="9">
+        <v>4</v>
+      </c>
+      <c r="E30" s="9">
+        <v>200</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2581,85 +2671,117 @@
       <c r="K31" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="13" t="s">
+      <c r="L31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="8" t="s">
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
+      <c r="K34" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B35" s="8">
         <v>26</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="11">
-        <v>4</v>
-      </c>
-      <c r="E35" s="11">
-        <v>200</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>41</v>
+      <c r="D35" s="9">
+        <v>4</v>
+      </c>
+      <c r="E35" s="9">
+        <v>200</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/code/Simulation_list/List.xlsx
+++ b/code/Simulation_list/List.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achom\Desktop\Main\Code\Scientific-Computing\Physics-Neural-Networks\PINN\code\Simulation_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA8C4D-1F08-424C-9761-1937662E99BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED445119-40D0-45BB-920C-4EA5F4CB1EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulations_1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Simulations_2" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Simulations Born Ion" sheetId="4" r:id="rId3"/>
-    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Simulations" sheetId="4" r:id="rId3"/>
+    <sheet name="Results" sheetId="5" r:id="rId4"/>
+    <sheet name="Notes" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="76">
   <si>
     <t>HL</t>
   </si>
@@ -236,13 +237,37 @@
     <t>ordenar resultados en tablas (cruce entre cuantitativo y cualitativo)</t>
   </si>
   <si>
-    <t>Falta ruido</t>
-  </si>
-  <si>
-    <t>u = u*g</t>
-  </si>
-  <si>
-    <t>desviación = 0.1</t>
+    <t>S99</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
   </si>
 </sst>
 </file>
@@ -266,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +421,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,18 +1881,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M41"/>
+  <dimension ref="B2:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="4.08984375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1865,8 +1911,24 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1897,8 +1959,38 @@
       <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1926,8 +2018,39 @@
       <c r="L4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>200</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1955,8 +2078,39 @@
       <c r="L5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>200</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1984,8 +2138,34 @@
       <c r="L6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>200</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
@@ -2013,8 +2193,34 @@
       <c r="L7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>200</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2043,7 +2249,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2068,8 +2274,24 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2092,8 +2314,38 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -2116,8 +2368,34 @@
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="N11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>200</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -2141,7 +2419,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -2197,7 +2475,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2228,7 +2506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
@@ -2559,242 +2837,251 @@
         <v>57</v>
       </c>
     </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="17">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17">
+        <v>200</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+    </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="B28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="17">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17">
+        <v>200</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>4</v>
+      <c r="B29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="17">
+        <v>4</v>
+      </c>
+      <c r="E29" s="17">
+        <v>200</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9">
-        <v>4</v>
-      </c>
-      <c r="E30" s="9">
-        <v>200</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" t="s">
-        <v>57</v>
+      <c r="D30" s="17">
+        <v>4</v>
+      </c>
+      <c r="E30" s="17">
+        <v>200</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="5">
-        <v>4</v>
-      </c>
-      <c r="E31" s="5">
-        <v>200</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="8">
-        <v>26</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="9">
-        <v>4</v>
-      </c>
-      <c r="E35" s="9">
-        <v>200</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E37" t="s">
+      <c r="D31" s="17">
+        <v>4</v>
+      </c>
+      <c r="E31" s="17">
+        <v>200</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="17">
+        <v>4</v>
+      </c>
+      <c r="E32" s="17">
+        <v>200</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="17">
+        <v>4</v>
+      </c>
+      <c r="E33" s="17">
+        <v>200</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
         <v>63</v>
       </c>
-      <c r="L37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E38" t="s">
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E49" t="s">
         <v>61</v>
       </c>
-      <c r="L38" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E39" t="s">
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E41" t="s">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="98" orientation="landscape" r:id="rId1"/>
@@ -2802,6 +3089,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CBB0E-FBF7-40F5-9295-CCF3B9CAA2E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D6C6CF-4BBF-4C2E-8C4B-020B001B42AA}">
   <dimension ref="B2:B3"/>
   <sheetViews>
